--- a/ExcelFiles/s3_good_trials_GraspObject_Shuffled.xlsx
+++ b/ExcelFiles/s3_good_trials_GraspObject_Shuffled.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macthurston\Documents\GitHub\project_grasp_object_interaction\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F72734-82B6-46E4-9CA0-1520C062FF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E815652-E7FB-47FF-AF55-29719972330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="11310" windowWidth="14115" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="300" windowWidth="14115" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -42,6 +41,9 @@
   </si>
   <si>
     <t>32 trials</t>
+  </si>
+  <si>
+    <t>24 trials--&gt;</t>
   </si>
 </sst>
 </file>
@@ -360,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,6 +481,57 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20240112</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20240119</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExcelFiles/s3_good_trials_GraspObject_Shuffled.xlsx
+++ b/ExcelFiles/s3_good_trials_GraspObject_Shuffled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macthurston\Documents\GitHub\project_grasp_object_interaction\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E815652-E7FB-47FF-AF55-29719972330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE437954-D7D3-4378-A65E-19D0497E7FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="300" windowWidth="14115" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>24 trials--&gt;</t>
+  </si>
+  <si>
+    <t>14,15</t>
   </si>
 </sst>
 </file>
@@ -362,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +535,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20240208</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExcelFiles/s3_good_trials_GraspObject_Shuffled.xlsx
+++ b/ExcelFiles/s3_good_trials_GraspObject_Shuffled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macthurston\Documents\GitHub\project_grasp_object_interaction\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE437954-D7D3-4378-A65E-19D0497E7FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A08873-DC95-4911-AFE6-94F821E4D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-3135" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +563,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20240214</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20240229</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExcelFiles/s3_good_trials_GraspObject_Shuffled.xlsx
+++ b/ExcelFiles/s3_good_trials_GraspObject_Shuffled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macthurston\Documents\GitHub\project_grasp_object_interaction\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A08873-DC95-4911-AFE6-94F821E4D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF45A5B-9AE2-4B5D-B1BD-AA4F8F493B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-3135" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>14,15</t>
+  </si>
+  <si>
+    <t>not included</t>
   </si>
 </sst>
 </file>
@@ -365,21 +368,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -428,6 +431,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -465,6 +471,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -612,6 +621,29 @@
       </c>
       <c r="G15">
         <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20240829</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
